--- a/agents/CVV/CVV-Data-Contents.xlsx
+++ b/agents/CVV/CVV-Data-Contents.xlsx
@@ -51,7 +51,7 @@
     <t xml:space="preserve">text</t>
   </si>
   <si>
-    <t xml:space="preserve">This is not an agent/disease listed by the World Organisation for Animal Health (OIE). Geographical distribution can therefore not be mapped directly from any available reports. </t>
+    <t xml:space="preserve">This is not an agent/disease listed by the World Organisation for Animal Health (WOAH). Geographical distribution can therefore not be mapped directly from any available reports. </t>
   </si>
   <si>
     <t xml:space="preserve">sub-title</t>
@@ -207,7 +207,7 @@
     <t xml:space="preserve">Diagnosis</t>
   </si>
   <si>
-    <t xml:space="preserve">There are no OIE- recommended standard tests for Bunyamwera.</t>
+    <t xml:space="preserve">There are no WOAH- recommended standard tests for Bunyamwera.</t>
   </si>
   <si>
     <t xml:space="preserve">EFSA conducts regular systematic literature reviews covering peer-reviewed literature in English since 1970, covering diagnostic tests approved for use in the European Union (EU). </t>
@@ -447,7 +447,7 @@
     <t xml:space="preserve">ref001</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE-WAHIS (OIE World Animal Health Information System)</t>
+    <t xml:space="preserve">WOAH-WAHIS (WOAH World Animal Health Information System)</t>
   </si>
   <si>
     <t xml:space="preserve">https://wahis.oie.int/</t>
@@ -474,7 +474,7 @@
     <t xml:space="preserve">ref005</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE (World Organisation for Animal Health). Terrestrial Animal Health Code 2021. OIE, Paris, France</t>
+    <t xml:space="preserve">WOAH (World Organisation for Animal Health). Terrestrial Animal Health Code 2021. WOAH, Paris, France</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.oie.int/en/what-we-do/standards/codes-and-manuals/terrestrial-code-online-access/?id=169&amp;L=0&amp;htmfile=chapitre_notification.htm</t>
@@ -501,7 +501,7 @@
     <t xml:space="preserve">ref008</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE (World Organisation for Animal Health) Technical Disease Card: African swine fever. 2021.</t>
+    <t xml:space="preserve">WOAH (World Organisation for Animal Health) Technical Disease Card: African swine fever. 2021.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.oie.int/app/uploads/2021/03/oie-african-swine-fever-technical-disease-card.pdf</t>
@@ -510,7 +510,7 @@
     <t xml:space="preserve">ref009</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE (World Organisation for Animal Health), 2021. African Swine fever. Chapter 15.1. OIE Terrestrial Animal Health Code, Paris, France</t>
+    <t xml:space="preserve">WOAH (World Organisation for Animal Health), 2021. African Swine fever. Chapter 15.1. WOAH Terrestrial Animal Health Code, Paris, France</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.oie.int/fileadmin/Home/eng/Health_standards/tahc/current/chapitre_asf.pdf</t>
@@ -519,7 +519,7 @@
     <t xml:space="preserve">ref010</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE (World Organisation for Animal Health), 2019. African Swine fever. Chapter 3.08.01. OIE Terrestrial Manual, Paris, France</t>
+    <t xml:space="preserve">WOAH (World Organisation for Animal Health), 2019. African Swine fever. Chapter 3.08.01. WOAH Terrestrial Manual, Paris, France</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.oie.int/fileadmin/Home/eng/Health_standards/tahm/3.08.01_ASF.pdf</t>

--- a/agents/CVV/CVV-Data-Contents.xlsx
+++ b/agents/CVV/CVV-Data-Contents.xlsx
@@ -84,7 +84,7 @@
     <t xml:space="preserve">You can download all data collected through systematic literature review {ref011:here}. Data fields are explained in this {ref012:read-me file}.</t>
   </si>
   <si>
-    <t xml:space="preserve">The review was last updated in January 2021. The complete list of references is available for download {ref013:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
+    <t xml:space="preserve">The review was last updated in January 2022. The complete list of references is available for download {ref013:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
   </si>
   <si>
     <t xml:space="preserve">map</t>
@@ -126,7 +126,7 @@
     <t xml:space="preserve">You can download all data collected through systematic literature review {ref014:here}. Data fields are explained in this {ref015:read-me file}.</t>
   </si>
   <si>
-    <t xml:space="preserve">*The review was last updated in January 2021. The complete list of references is available for download {ref016:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
+    <t xml:space="preserve">*The review was last updated in January 2022. The complete list of references is available for download {ref016:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
   </si>
   <si>
     <t xml:space="preserve">Public Health</t>
@@ -138,7 +138,7 @@
     <t xml:space="preserve">HTML file</t>
   </si>
   <si>
-    <t xml:space="preserve">Impact-CVV.html</t>
+    <t xml:space="preserve">ExperimentalInfections-CVV.html</t>
   </si>
   <si>
     <t xml:space="preserve">Agent</t>
@@ -177,7 +177,7 @@
     <t xml:space="preserve">You can download all data collected through systematic literature review {ref017:here}. Data fields are explained in this {ref018:read-me file}.</t>
   </si>
   <si>
-    <t xml:space="preserve">*The review was last updated in January 2021. The complete list of references is available for download {ref019:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
+    <t xml:space="preserve">*The review was last updated in January 2022. The complete list of references is available for download {ref019:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
   </si>
   <si>
     <t xml:space="preserve">Survival-CVV.html</t>
@@ -234,7 +234,7 @@
     <t xml:space="preserve">You can download all data collected through systematic literature review {ref020:here}. Data fields are explained in this {ref021:read-me file}.</t>
   </si>
   <si>
-    <t xml:space="preserve">The review was last updated in January 2021. The complete list of references is available for download {ref022:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
+    <t xml:space="preserve">The review was last updated in January 2022. The complete list of references is available for download {ref022:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
   </si>
   <si>
     <t xml:space="preserve">Diagnostic-CVV.html</t>

--- a/agents/CVV/CVV-Data-Contents.xlsx
+++ b/agents/CVV/CVV-Data-Contents.xlsx
@@ -180,7 +180,7 @@
     <t xml:space="preserve">*The review was last updated in January 2022. The complete list of references is available for download {ref019:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
   </si>
   <si>
-    <t xml:space="preserve">Survival-CVV.html</t>
+    <t xml:space="preserve">PathogenSurvival-CVV.html</t>
   </si>
   <si>
     <t xml:space="preserve">Transmission</t>

--- a/agents/CVV/CVV-Data-Contents.xlsx
+++ b/agents/CVV/CVV-Data-Contents.xlsx
@@ -309,7 +309,7 @@
     <t xml:space="preserve">EFSA conducts regular systematic literature reviews (SLR) covering all vaccine efficacy studies  published in peer-reviewed literature in English since 1970, when evaluating vaccines approved for use in the European Union. </t>
   </si>
   <si>
-    <t xml:space="preserve">No vaccines weer available at the time of the latest SLR.  The next update is planned for 2022.</t>
+    <t xml:space="preserve">No vaccines weer available at the time of the latest SLR.  The next update is planned for 2023.</t>
   </si>
   <si>
     <t xml:space="preserve">You can download all data collected through systematic literature review {ref023:here}, for pathogens which have available vaccines. Data fields are explained in this {ref024:read-me file}.</t>

--- a/agents/CVV/CVV-Data-Contents.xlsx
+++ b/agents/CVV/CVV-Data-Contents.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\DiseaseProfiles\agents\CVV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernanda.dorea\Documents\Azure\storymaps\agents\CVV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C80A2E0-EFB6-4377-8B44-9E05FC06E08C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3B97D1-B8A1-43A9-B914-830519CFD5A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4210" yWindow="5560" windowWidth="7230" windowHeight="3980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -1132,13 +1132,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD37"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="C117" sqref="C117:D117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>3</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>4</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>5</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>6</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>7</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>8</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>1</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>2</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>3</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>4</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>5</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>6</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>7</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>8</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>9</v>
       </c>
@@ -1665,7 +1665,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>10</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>11</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>12</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>13</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>14</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>15</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>6</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>7</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>8</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>9</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>10</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>11</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>12</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>13</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>14</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>15</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>4</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>5</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>6</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>7</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>8</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>9</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>10</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>11</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>3</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>4</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>5</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>6</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>7</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>8</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>9</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>10</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>11</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>12</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>3</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>4</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>5</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>6</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>7</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>8</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>9</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>10</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>11</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>12</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>3</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>4</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>5</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>6</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>7</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>8</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>9</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>10</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>3</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>4</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>5</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>6</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>7</v>
       </c>
@@ -2906,7 +2906,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>3</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>4</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>5</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>6</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>7</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>8</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>9</v>
       </c>
@@ -3059,7 +3059,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>10</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>11</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>12</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>13</v>
       </c>
@@ -3118,16 +3118,16 @@
         <v>10</v>
       </c>
       <c r="C117">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="E117" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>2</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>3</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>4</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>5</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>6</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>7</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>2</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>3</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>4</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>2</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>3</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>4</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>5</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>6</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>7</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>8</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>9</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>10</v>
       </c>
@@ -3530,9 +3530,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>143</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>146</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>149</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>152</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>155</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>158</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>161</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>164</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>167</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>170</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>173</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>176</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>179</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>182</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>185</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>188</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>191</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>194</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>197</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>200</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>203</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>206</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>209</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>212</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>215</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>218</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>221</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>224</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>227</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>230</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>233</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>236</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>239</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>242</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>245</v>
       </c>
